--- a/testemunhoweb/logs/January.xlsx
+++ b/testemunhoweb/logs/January.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Daiana</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>Jessica Silva</t>
+          <t>Daiana</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr"/>
@@ -506,35 +506,35 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Robson</t>
+          <t>Ediane</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Robson</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr">
         <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
           <t>Vanda</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Isabele</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -596,19 +596,19 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr">
         <is>
+          <t>Vinicius</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
           <t>Antonio</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>Vinicius</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>Beth</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Douglas Oliveira</t>
+          <t>Carlos Eduardo</t>
         </is>
       </c>
     </row>
@@ -690,32 +690,32 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Helaine Camilo</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Graca</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Aline Lima</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr">
         <is>
+          <t>Icaro</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
           <t>Vinicius</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Antonio</t>
-        </is>
-      </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Amintas</t>
@@ -723,7 +723,7 @@
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>Dario</t>
+          <t>Marcio</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Patricia Dias</t>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
@@ -754,14 +754,14 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Patricia Rodrigues</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="4" t="inlineStr"/>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Icaro</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Ediane</t>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
@@ -799,7 +799,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Lindoia</t>
+          <t>Lurdes</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Lurdes</t>
+          <t>Vinicius</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
@@ -857,12 +857,12 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
+          <t>Keila</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
           <t>Eliane</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Isabele</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr"/>
@@ -873,24 +873,24 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Patricia Rodrigues</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" s="4" t="inlineStr"/>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>Aline Lima</t>
+          <t>Beth</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>Beth</t>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t>Geronimo</t>
+          <t>Douglas Oliveira</t>
         </is>
       </c>
     </row>
@@ -962,18 +962,18 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Lurdes</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Aline Lima</t>
+          <t>Helaine Camilo</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Graca</t>
+          <t>Lurdes</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -985,22 +985,22 @@
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Keila</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>Patricia Dias</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>Icaro</t>
+          <t>Vanda</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Marcio</t>
+          <t>EMPTY</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Graca</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr"/>
@@ -1031,19 +1031,19 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr"/>
       <c r="I17" s="4" t="inlineStr"/>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>Icaro</t>
+          <t>EMPTY</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr"/>
@@ -1060,35 +1060,35 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Ediane</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Lindoia</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Lurdes</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="4" t="inlineStr"/>
       <c r="J18" s="4" t="inlineStr">
         <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
           <t>Vanda</t>
-        </is>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
-        <is>
-          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Cida</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr"/>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Lurdes</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Isabele</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr"/>
@@ -1150,29 +1150,29 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Patricia Rodrigues</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr"/>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Aline Lima</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>Vinicius</t>
+          <t>Daiana</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
+          <t>Icaro</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
           <t>Clayton</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t>Icaro</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>Douglas Oliveira</t>
+          <t>Carlos Eduardo</t>
         </is>
       </c>
     </row>
@@ -1244,40 +1244,40 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr"/>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Aline Lima</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>Graca</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
       <c r="I23" s="4" t="inlineStr"/>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Vanda</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>Icaro</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Edith</t>
+          <t>Cida</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr"/>
@@ -1315,12 +1315,12 @@
       <c r="I24" s="4" t="inlineStr"/>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Keila</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>Daiana</t>
+          <t>Jessica Silva</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr"/>
@@ -1337,30 +1337,30 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Aline Lima</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Lindoia</t>
+          <t>Lurdes</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Alana</t>
+          <t>Lurdes</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr"/>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Daiana</t>
+          <t>Lurdes</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Isabele</t>
+          <t>Keila</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr"/>
@@ -1427,29 +1427,29 @@
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr"/>
       <c r="I27" s="4" t="inlineStr"/>
       <c r="J27" s="4" t="inlineStr">
         <is>
+          <t>Valquiria</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
           <t>Beth</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
-        </is>
-      </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Rodolfo</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>Vinicius</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Icaro</t>
+          <t>Geronimo</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Aline Lima</t>
+          <t>Helaine Camilo</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Graca</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -1539,22 +1539,22 @@
       <c r="I30" s="4" t="inlineStr"/>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Keila</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>Icaro</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
+          <t>Dario</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
           <t>Amintas</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>Marcio</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Valquiria</t>
+          <t>Vanda</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr"/>
@@ -1585,14 +1585,14 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Keila</t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr"/>
       <c r="I31" s="4" t="inlineStr"/>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Rodolfo Dias</t>
+          <t>Daiana</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
@@ -1619,18 +1619,18 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Aline Lima</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Patricia Dias</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Patricia Dias</t>
+          <t>Robson</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>Lurdes</t>
+          <t>EMPTY</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>Cida</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="5" t="n">
-        <v>43806.08710319157</v>
+        <v>43818.62945150064</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
